--- a/de18.xlsx
+++ b/de18.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chtie\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="21-4-19" sheetId="1" r:id="rId1"/>
@@ -254,15 +254,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>204215</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556640</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>129917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -279,7 +279,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4743449" y="3028950"/>
+          <a:off x="4486274" y="1885950"/>
           <a:ext cx="7243191" cy="2625467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -291,16 +291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>563709</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373209</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>6404</xdr:rowOff>
+      <xdr:rowOff>168329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66673</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -324,7 +324,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8078934" y="196904"/>
+          <a:off x="8498034" y="358829"/>
           <a:ext cx="731691" cy="822269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -340,6 +340,44 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>256845</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="0"/>
+          <a:ext cx="2638095" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -778,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/de18.xlsx
+++ b/de18.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chtie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="21-4-19" sheetId="1" r:id="rId1"/>
@@ -374,6 +374,48 @@
         <a:xfrm>
           <a:off x="9401175" y="0"/>
           <a:ext cx="2638095" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594891</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219949" y="695324"/>
+          <a:ext cx="890167" cy="769515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,7 +859,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/de18.xlsx
+++ b/de18.xlsx
@@ -254,16 +254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>556640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129917</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528065</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>44192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -279,7 +279,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486274" y="1885950"/>
+          <a:off x="3848099" y="3895725"/>
           <a:ext cx="7243191" cy="2625467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
